--- a/相关文档/数据库设计/智慧酒店系统数据库命名规范.xlsx
+++ b/相关文档/数据库设计/智慧酒店系统数据库命名规范.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="826"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="826" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ID范围" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -110,99 +110,93 @@
     <t>receptionId</t>
   </si>
   <si>
+    <t>房间类型ID</t>
+  </si>
+  <si>
+    <t>roomtype_id</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>roomType</t>
+  </si>
+  <si>
+    <t>订单价格</t>
+  </si>
+  <si>
+    <t>order_price</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>orderPrice</t>
+  </si>
+  <si>
+    <t>订单状态</t>
+  </si>
+  <si>
+    <t>order_status</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>orderStatus</t>
+  </si>
+  <si>
+    <t>已删除0','已预订1','进行中2','已完成3','已取消4'五种状态</t>
+  </si>
+  <si>
+    <t>订单创建日期</t>
+  </si>
+  <si>
+    <t>order_credate</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>orderCredate</t>
+  </si>
+  <si>
+    <t>入住日期</t>
+  </si>
+  <si>
+    <t>checkin_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>checkinDate</t>
+  </si>
+  <si>
+    <t>退房日期</t>
+  </si>
+  <si>
+    <t>checkout_date</t>
+  </si>
+  <si>
+    <t>checkoutDate</t>
+  </si>
+  <si>
+    <t>入住人数</t>
+  </si>
+  <si>
+    <t>customer_number</t>
+  </si>
+  <si>
+    <t>customerNumber</t>
+  </si>
+  <si>
     <t>房间类型</t>
   </si>
   <si>
     <t>room_type</t>
   </si>
   <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>roomType</t>
-  </si>
-  <si>
-    <t>订单价格</t>
-  </si>
-  <si>
-    <t>order_price</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>orderPrice</t>
-  </si>
-  <si>
-    <t>订单状态</t>
-  </si>
-  <si>
-    <t>order_status</t>
-  </si>
-  <si>
-    <t>tinyint</t>
-  </si>
-  <si>
-    <t>orderStatus</t>
-  </si>
-  <si>
-    <t>已删除0','已预订1','进行中2','已完成3','已取消4'五种状态</t>
-  </si>
-  <si>
-    <t>订单创建日期</t>
-  </si>
-  <si>
-    <t>order_credate</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>orderCredate</t>
-  </si>
-  <si>
-    <t>入住日期</t>
-  </si>
-  <si>
-    <t>checkin_date</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>checkinDate</t>
-  </si>
-  <si>
-    <t>退房日期</t>
-  </si>
-  <si>
-    <t>checkout_date</t>
-  </si>
-  <si>
-    <t>checkoutDate</t>
-  </si>
-  <si>
-    <t>入住人数</t>
-  </si>
-  <si>
-    <t>customer_number</t>
-  </si>
-  <si>
-    <t>customerNumber</t>
-  </si>
-  <si>
-    <t>用户手机号</t>
-  </si>
-  <si>
-    <t>customer_phone</t>
-  </si>
-  <si>
-    <t>非空，长度为11</t>
-  </si>
-  <si>
-    <t>customerPhone</t>
-  </si>
-  <si>
     <t>房间号</t>
   </si>
   <si>
@@ -368,9 +362,6 @@
     <t>customer_tele</t>
   </si>
   <si>
-    <t>非空，11位</t>
-  </si>
-  <si>
     <t>customerTele</t>
   </si>
   <si>
@@ -432,9 +423,6 @@
   </si>
   <si>
     <t>stuff_tele</t>
-  </si>
-  <si>
-    <t>非空,11位</t>
   </si>
   <si>
     <t>stuffTele</t>
@@ -476,11 +464,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,44 +484,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,15 +499,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,16 +521,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -592,24 +573,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -623,16 +611,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,7 +621,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,175 +636,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,11 +830,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,21 +917,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -913,184 +927,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1431,7 +1412,7 @@
   </sheetPr>
   <dimension ref="D4:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -1566,8 +1547,8 @@
   </sheetPr>
   <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1802,21 +1783,11 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" ht="18.6" customHeight="1" spans="2:7">
-      <c r="B14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
   </sheetData>
@@ -1886,10 +1857,10 @@
     </row>
     <row r="4" ht="18.6" customHeight="1" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
@@ -1903,10 +1874,10 @@
     </row>
     <row r="5" ht="18.6" customHeight="1" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -1915,15 +1886,15 @@
         <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" ht="18.6" customHeight="1" spans="2:7">
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -1932,10 +1903,10 @@
         <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1984,7 +1955,7 @@
     </row>
     <row r="3" ht="18.6" customHeight="1" spans="2:6">
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -1996,47 +1967,47 @@
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" ht="18.6" customHeight="1" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" ht="18.6" customHeight="1" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" ht="18.6" customHeight="1" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>35</v>
@@ -2045,15 +2016,15 @@
         <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" ht="18.6" customHeight="1" spans="2:6">
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -2062,15 +2033,15 @@
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" ht="18.6" customHeight="1" spans="2:6">
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -2079,15 +2050,15 @@
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>39</v>
@@ -2096,10 +2067,10 @@
         <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2148,7 +2119,7 @@
     </row>
     <row r="3" ht="18.6" customHeight="1" spans="2:7">
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -2160,7 +2131,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -2168,28 +2139,28 @@
     </row>
     <row r="4" ht="18.6" customHeight="1" spans="2:7">
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" ht="18.6" customHeight="1" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
@@ -2198,15 +2169,15 @@
         <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" ht="18.6" customHeight="1" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
@@ -2215,7 +2186,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2232,7 +2203,7 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -2283,27 +2254,27 @@
     </row>
     <row r="4" ht="18.6" customHeight="1" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" ht="18.6" customHeight="1" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
@@ -2312,32 +2283,32 @@
         <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" ht="18.6" customHeight="1" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" ht="18.6" customHeight="1" spans="2:6">
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -2346,32 +2317,32 @@
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>39</v>
@@ -2380,10 +2351,10 @@
         <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2431,7 +2402,7 @@
     </row>
     <row r="3" ht="18.6" customHeight="1" spans="2:7">
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -2451,7 +2422,7 @@
     </row>
     <row r="4" ht="18.6" customHeight="1" spans="2:7">
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -2460,19 +2431,19 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" ht="18.6" customHeight="1" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
@@ -2481,7 +2452,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2498,7 +2469,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -2533,7 +2504,7 @@
     </row>
     <row r="3" ht="18.6" customHeight="1" spans="2:6">
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -2545,32 +2516,32 @@
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" ht="18.6" customHeight="1" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" ht="18.6" customHeight="1" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -2579,15 +2550,15 @@
         <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" ht="18.6" customHeight="1" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
@@ -2596,63 +2567,63 @@
         <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" ht="18.6" customHeight="1" spans="2:6">
       <c r="B7" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" ht="18.6" customHeight="1" spans="2:6">
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" ht="18.6" customHeight="1" spans="2:6">
       <c r="B9" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
@@ -2661,10 +2632,10 @@
         <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/相关文档/数据库设计/智慧酒店系统数据库命名规范.xlsx
+++ b/相关文档/数据库设计/智慧酒店系统数据库命名规范.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="826" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="826" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ID范围" sheetId="8" r:id="rId1"/>
@@ -463,8 +463,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -484,14 +484,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,27 +544,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -574,7 +582,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,6 +612,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -603,29 +626,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -636,73 +636,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,109 +816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,6 +827,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -872,6 +887,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -880,9 +904,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,42 +927,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,133 +945,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1547,8 +1547,8 @@
   </sheetPr>
   <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1804,8 +1804,8 @@
   </sheetPr>
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1880,7 +1880,7 @@
         <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
